--- a/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2017.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2017.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>270.6808603828</v>
+        <v>2706808.603828</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1887.5179803098</v>
+        <v>18875179.803098</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>179.1233579617</v>
+        <v>1791233.579617</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>147.3137393539</v>
+        <v>1473137.393539</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1451.4041128422</v>
+        <v>14514041.128422</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>78.2950814876</v>
+        <v>782950.814876</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>193.298662308</v>
+        <v>1932986.62308</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>81.2430090322</v>
+        <v>812430.090322</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>303.2425771083</v>
+        <v>3032425.771083</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>201.9391005659</v>
+        <v>2019391.005659</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>115.0198460213</v>
+        <v>1150198.460213</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>677.7445208155</v>
+        <v>6777445.208155</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>177.7635927927</v>
+        <v>1777635.927927</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>199.3710876122</v>
+        <v>1993710.876122</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>919.5510725966</v>
+        <v>9195510.725966</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>199.0801857083</v>
+        <v>1990801.857083</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>290.9886586635</v>
+        <v>2909886.586635</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>157.4597843176</v>
+        <v>1574597.843176</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>77.0093957982</v>
+        <v>770093.957982</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>77.5210425264</v>
+        <v>775210.425264</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>13424.2244691549</v>
+        <v>134242244.691549</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>675.9783889986</v>
+        <v>6759783.889986</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>249.3192220134</v>
+        <v>2493192.220134</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>521.8568641781</v>
+        <v>5218568.641781</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>712.1410163782</v>
+        <v>7121410.163782</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>536.60528941</v>
+        <v>5366052.8941</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>421.2348022016</v>
+        <v>4212348.022016</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>21.9608566782</v>
+        <v>219608.566782</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>98.553901787</v>
+        <v>985539.01787</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>177.0996991346</v>
+        <v>1770996.991346</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>469.8659332773</v>
+        <v>4698659.332773</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>234.100780074</v>
+        <v>2341007.80074</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
